--- a/test/mechanical/forecasts/forecasts.xlsx
+++ b/test/mechanical/forecasts/forecasts.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>City</t>
   </si>
@@ -91,16 +91,34 @@
     <t>95th Percentile Score</t>
   </si>
   <si>
+    <t>CIN</t>
+  </si>
+  <si>
     <t>BUF</t>
   </si>
   <si>
+    <t>Orchard Park</t>
+  </si>
+  <si>
+    <t>JAX</t>
+  </si>
+  <si>
     <t>KC</t>
   </si>
   <si>
-    <t>Atlanta</t>
+    <t>Kansas City</t>
+  </si>
+  <si>
+    <t>MIN</t>
   </si>
   <si>
     <t>SF</t>
+  </si>
+  <si>
+    <t>Santa Clara</t>
+  </si>
+  <si>
+    <t>TB</t>
   </si>
   <si>
     <t>PHI</t>
@@ -119,10 +137,18 @@
     <numFmt numFmtId="166" formatCode="#0%"/>
     <numFmt numFmtId="167" formatCode="#0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -138,7 +164,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFD7A22A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFF2C800"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFF0BF00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -168,7 +210,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,7 +219,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFB4F14"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00338D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF006576"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -189,7 +243,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF3B0160"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFAF1E2C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD60A0B"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -241,7 +307,19 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -550,7 +628,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -564,9 +642,13 @@
     <col min="4" max="4" width="1.7109375" customWidth="1"/>
     <col min="5" max="6" width="8.28515625" customWidth="1"/>
     <col min="7" max="7" width="1.7109375" customWidth="1"/>
+    <col min="8" max="9" width="8.28515625" customWidth="1"/>
+    <col min="10" max="10" width="1.7109375" customWidth="1"/>
+    <col min="11" max="12" width="8.28515625" customWidth="1"/>
+    <col min="13" max="13" width="1.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
@@ -579,406 +661,690 @@
       <c r="F1" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="5" t="s">
+      <c r="H1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="E2" s="6" t="s">
+      <c r="C2" s="10"/>
+      <c r="E2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="5" t="s">
+      <c r="F2" s="10"/>
+      <c r="H2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="K2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="10"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:12">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7">
-        <v>0.6871039730354309</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="E4" s="7">
-        <v>0.6221832770157029</v>
-      </c>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
+      <c r="B4" s="11">
+        <v>0.9611638908317517</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="E4" s="11">
+        <v>0.1998290419029166</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="H4" s="11">
+        <v>0.4497698103002625</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="K4" s="11">
+        <v>0.3266969845794793</v>
+      </c>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:12">
+      <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8">
-        <v>0.1832354</v>
-      </c>
-      <c r="C6" s="8">
-        <v>0.8167646</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0.845012</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0.154988</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
+      <c r="B6" s="12">
+        <v>0.3845082</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0.6154918</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.03109</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0.96891</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0.09402679999999999</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0.9059732</v>
+      </c>
+      <c r="K6" s="12">
+        <v>0.9401883</v>
+      </c>
+      <c r="L6" s="12">
+        <v>0.0598117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="9">
-        <v>20.7258672</v>
-      </c>
-      <c r="C7" s="9">
-        <v>30.3825342</v>
-      </c>
-      <c r="E7" s="9">
-        <v>30.3970302</v>
-      </c>
-      <c r="F7" s="9">
-        <v>21.5847868</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
+      <c r="B7" s="13">
+        <v>23.7912556</v>
+      </c>
+      <c r="C7" s="13">
+        <v>27.2159754</v>
+      </c>
+      <c r="E7" s="13">
+        <v>17.7335622</v>
+      </c>
+      <c r="F7" s="13">
+        <v>35.2992208</v>
+      </c>
+      <c r="H7" s="13">
+        <v>20.7811558</v>
+      </c>
+      <c r="I7" s="13">
+        <v>32.1506634</v>
+      </c>
+      <c r="K7" s="13">
+        <v>34.5485058</v>
+      </c>
+      <c r="L7" s="13">
+        <v>20.1210752</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="13">
+        <v>13</v>
+      </c>
+      <c r="C8" s="13">
+        <v>13</v>
+      </c>
+      <c r="E8" s="13">
         <v>7</v>
       </c>
-      <c r="C8" s="9">
+      <c r="F8" s="13">
+        <v>24</v>
+      </c>
+      <c r="H8" s="13">
+        <v>10</v>
+      </c>
+      <c r="I8" s="13">
+        <v>21</v>
+      </c>
+      <c r="K8" s="13">
+        <v>24</v>
+      </c>
+      <c r="L8" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="13">
+        <v>16</v>
+      </c>
+      <c r="C9" s="13">
+        <v>16</v>
+      </c>
+      <c r="E9" s="13">
+        <v>9</v>
+      </c>
+      <c r="F9" s="13">
+        <v>27</v>
+      </c>
+      <c r="H9" s="13">
+        <v>13</v>
+      </c>
+      <c r="I9" s="13">
+        <v>24</v>
+      </c>
+      <c r="K9" s="13">
+        <v>27</v>
+      </c>
+      <c r="L9" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="13">
+        <v>17</v>
+      </c>
+      <c r="C10" s="13">
+        <v>17</v>
+      </c>
+      <c r="E10" s="13">
+        <v>10</v>
+      </c>
+      <c r="F10" s="13">
+        <v>29</v>
+      </c>
+      <c r="H10" s="13">
+        <v>14</v>
+      </c>
+      <c r="I10" s="13">
+        <v>26</v>
+      </c>
+      <c r="K10" s="13">
+        <v>28</v>
+      </c>
+      <c r="L10" s="13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="13">
+        <v>20</v>
+      </c>
+      <c r="C11" s="13">
+        <v>20</v>
+      </c>
+      <c r="E11" s="13">
+        <v>13</v>
+      </c>
+      <c r="F11" s="13">
+        <v>30</v>
+      </c>
+      <c r="H11" s="13">
+        <v>16</v>
+      </c>
+      <c r="I11" s="13">
+        <v>27</v>
+      </c>
+      <c r="K11" s="13">
+        <v>30</v>
+      </c>
+      <c r="L11" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="13">
+        <v>20</v>
+      </c>
+      <c r="C12" s="13">
+        <v>20</v>
+      </c>
+      <c r="E12" s="13">
+        <v>13</v>
+      </c>
+      <c r="F12" s="13">
+        <v>31</v>
+      </c>
+      <c r="H12" s="13">
+        <v>17</v>
+      </c>
+      <c r="I12" s="13">
+        <v>29</v>
+      </c>
+      <c r="K12" s="13">
+        <v>31</v>
+      </c>
+      <c r="L12" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="13">
+        <v>20</v>
+      </c>
+      <c r="C13" s="13">
+        <v>23</v>
+      </c>
+      <c r="E13" s="13">
+        <v>14</v>
+      </c>
+      <c r="F13" s="13">
+        <v>33</v>
+      </c>
+      <c r="H13" s="13">
+        <v>18</v>
+      </c>
+      <c r="I13" s="13">
+        <v>30</v>
+      </c>
+      <c r="K13" s="13">
+        <v>31</v>
+      </c>
+      <c r="L13" s="13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="13">
+        <v>20</v>
+      </c>
+      <c r="C14" s="13">
+        <v>23</v>
+      </c>
+      <c r="E14" s="13">
+        <v>15</v>
+      </c>
+      <c r="F14" s="13">
+        <v>34</v>
+      </c>
+      <c r="H14" s="13">
         <v>19</v>
       </c>
-      <c r="E8" s="9">
+      <c r="I14" s="13">
+        <v>30</v>
+      </c>
+      <c r="K14" s="13">
+        <v>33</v>
+      </c>
+      <c r="L14" s="13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="13">
+        <v>23</v>
+      </c>
+      <c r="C15" s="13">
+        <v>24</v>
+      </c>
+      <c r="E15" s="13">
+        <v>16</v>
+      </c>
+      <c r="F15" s="13">
+        <v>34</v>
+      </c>
+      <c r="H15" s="13">
+        <v>20</v>
+      </c>
+      <c r="I15" s="13">
+        <v>31</v>
+      </c>
+      <c r="K15" s="13">
+        <v>34</v>
+      </c>
+      <c r="L15" s="13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="13">
+        <v>23</v>
+      </c>
+      <c r="C16" s="13">
+        <v>26</v>
+      </c>
+      <c r="E16" s="13">
+        <v>17</v>
+      </c>
+      <c r="F16" s="13">
+        <v>35</v>
+      </c>
+      <c r="H16" s="13">
+        <v>20</v>
+      </c>
+      <c r="I16" s="13">
+        <v>32</v>
+      </c>
+      <c r="K16" s="13">
+        <v>34</v>
+      </c>
+      <c r="L16" s="13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="13">
+        <v>24</v>
+      </c>
+      <c r="C17" s="13">
+        <v>27</v>
+      </c>
+      <c r="E17" s="13">
+        <v>18</v>
+      </c>
+      <c r="F17" s="13">
+        <v>36</v>
+      </c>
+      <c r="H17" s="13">
         <v>21</v>
       </c>
-      <c r="F8" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="9">
-        <v>10</v>
-      </c>
-      <c r="C9" s="9">
+      <c r="I17" s="13">
+        <v>33</v>
+      </c>
+      <c r="K17" s="13">
+        <v>35</v>
+      </c>
+      <c r="L17" s="13">
         <v>20</v>
       </c>
-      <c r="E9" s="9">
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="13">
+        <v>25</v>
+      </c>
+      <c r="C18" s="13">
+        <v>28</v>
+      </c>
+      <c r="E18" s="13">
+        <v>19</v>
+      </c>
+      <c r="F18" s="13">
+        <v>37</v>
+      </c>
+      <c r="H18" s="13">
+        <v>21</v>
+      </c>
+      <c r="I18" s="13">
+        <v>33</v>
+      </c>
+      <c r="K18" s="13">
+        <v>36</v>
+      </c>
+      <c r="L18" s="13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="13">
+        <v>27</v>
+      </c>
+      <c r="C19" s="13">
+        <v>30</v>
+      </c>
+      <c r="E19" s="13">
+        <v>20</v>
+      </c>
+      <c r="F19" s="13">
+        <v>37</v>
+      </c>
+      <c r="H19" s="13">
+        <v>22</v>
+      </c>
+      <c r="I19" s="13">
+        <v>34</v>
+      </c>
+      <c r="K19" s="13">
+        <v>38</v>
+      </c>
+      <c r="L19" s="13">
         <v>23</v>
       </c>
-      <c r="F9" s="9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="9">
-        <v>13</v>
-      </c>
-      <c r="C10" s="9">
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="13">
+        <v>27</v>
+      </c>
+      <c r="C20" s="13">
+        <v>30</v>
+      </c>
+      <c r="E20" s="13">
+        <v>20</v>
+      </c>
+      <c r="F20" s="13">
+        <v>38</v>
+      </c>
+      <c r="H20" s="13">
         <v>24</v>
       </c>
-      <c r="E10" s="9">
+      <c r="I20" s="13">
+        <v>35</v>
+      </c>
+      <c r="K20" s="13">
+        <v>38</v>
+      </c>
+      <c r="L20" s="13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="13">
+        <v>27</v>
+      </c>
+      <c r="C21" s="13">
+        <v>33</v>
+      </c>
+      <c r="E21" s="13">
+        <v>21</v>
+      </c>
+      <c r="F21" s="13">
+        <v>40</v>
+      </c>
+      <c r="H21" s="13">
+        <v>25</v>
+      </c>
+      <c r="I21" s="13">
+        <v>36</v>
+      </c>
+      <c r="K21" s="13">
+        <v>38</v>
+      </c>
+      <c r="L21" s="13">
         <v>24</v>
       </c>
-      <c r="F10" s="9">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="9">
-        <v>13</v>
-      </c>
-      <c r="C11" s="9">
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="13">
+        <v>27</v>
+      </c>
+      <c r="C22" s="13">
+        <v>34</v>
+      </c>
+      <c r="E22" s="13">
+        <v>23</v>
+      </c>
+      <c r="F22" s="13">
+        <v>40</v>
+      </c>
+      <c r="H22" s="13">
+        <v>26</v>
+      </c>
+      <c r="I22" s="13">
+        <v>37</v>
+      </c>
+      <c r="K22" s="13">
+        <v>38</v>
+      </c>
+      <c r="L22" s="13">
         <v>25</v>
       </c>
-      <c r="E11" s="9">
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="13">
+        <v>30</v>
+      </c>
+      <c r="C23" s="13">
+        <v>35</v>
+      </c>
+      <c r="E23" s="13">
+        <v>23</v>
+      </c>
+      <c r="F23" s="13">
+        <v>41</v>
+      </c>
+      <c r="H23" s="13">
+        <v>27</v>
+      </c>
+      <c r="I23" s="13">
+        <v>37</v>
+      </c>
+      <c r="K23" s="13">
+        <v>40</v>
+      </c>
+      <c r="L23" s="13">
         <v>26</v>
       </c>
-      <c r="F11" s="9">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="9">
-        <v>16</v>
-      </c>
-      <c r="C12" s="9">
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="13">
+        <v>30</v>
+      </c>
+      <c r="C24" s="13">
+        <v>37</v>
+      </c>
+      <c r="E24" s="13">
+        <v>24</v>
+      </c>
+      <c r="F24" s="13">
+        <v>42</v>
+      </c>
+      <c r="H24" s="13">
+        <v>28</v>
+      </c>
+      <c r="I24" s="13">
+        <v>39</v>
+      </c>
+      <c r="K24" s="13">
+        <v>41</v>
+      </c>
+      <c r="L24" s="13">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="13">
+        <v>30</v>
+      </c>
+      <c r="C25" s="13">
+        <v>40</v>
+      </c>
+      <c r="E25" s="13">
         <v>26</v>
       </c>
-      <c r="E12" s="9">
-        <v>27</v>
-      </c>
-      <c r="F12" s="9">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="9">
-        <v>17</v>
-      </c>
-      <c r="C13" s="9">
-        <v>27</v>
-      </c>
-      <c r="E13" s="9">
-        <v>28</v>
-      </c>
-      <c r="F13" s="9">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="9">
-        <v>17</v>
-      </c>
-      <c r="C14" s="9">
-        <v>27</v>
-      </c>
-      <c r="E14" s="9">
+      <c r="F25" s="13">
+        <v>43</v>
+      </c>
+      <c r="H25" s="13">
         <v>29</v>
       </c>
-      <c r="F14" s="9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="9">
-        <v>19</v>
-      </c>
-      <c r="C15" s="9">
-        <v>28</v>
-      </c>
-      <c r="E15" s="9">
-        <v>30</v>
-      </c>
-      <c r="F15" s="9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="9">
-        <v>20</v>
-      </c>
-      <c r="C16" s="9">
-        <v>30</v>
-      </c>
-      <c r="E16" s="9">
-        <v>30</v>
-      </c>
-      <c r="F16" s="9">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="9">
-        <v>20</v>
-      </c>
-      <c r="C17" s="9">
+      <c r="I25" s="13">
+        <v>40</v>
+      </c>
+      <c r="K25" s="13">
+        <v>41</v>
+      </c>
+      <c r="L25" s="13">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="13">
+        <v>34</v>
+      </c>
+      <c r="C26" s="13">
+        <v>43</v>
+      </c>
+      <c r="E26" s="13">
+        <v>29</v>
+      </c>
+      <c r="F26" s="13">
+        <v>44</v>
+      </c>
+      <c r="H26" s="13">
+        <v>29</v>
+      </c>
+      <c r="I26" s="13">
+        <v>40</v>
+      </c>
+      <c r="K26" s="13">
+        <v>42</v>
+      </c>
+      <c r="L26" s="13">
         <v>31</v>
       </c>
-      <c r="E17" s="9">
-        <v>31</v>
-      </c>
-      <c r="F17" s="9">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="9">
-        <v>22</v>
-      </c>
-      <c r="C18" s="9">
-        <v>32</v>
-      </c>
-      <c r="E18" s="9">
-        <v>31</v>
-      </c>
-      <c r="F18" s="9">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="9">
-        <v>23</v>
-      </c>
-      <c r="C19" s="9">
-        <v>33</v>
-      </c>
-      <c r="E19" s="9">
-        <v>31</v>
-      </c>
-      <c r="F19" s="9">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="9">
-        <v>24</v>
-      </c>
-      <c r="C20" s="9">
-        <v>34</v>
-      </c>
-      <c r="E20" s="9">
-        <v>33</v>
-      </c>
-      <c r="F20" s="9">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="9">
-        <v>25</v>
-      </c>
-      <c r="C21" s="9">
-        <v>34</v>
-      </c>
-      <c r="E21" s="9">
-        <v>34</v>
-      </c>
-      <c r="F21" s="9">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="9">
-        <v>27</v>
-      </c>
-      <c r="C22" s="9">
-        <v>34</v>
-      </c>
-      <c r="E22" s="9">
-        <v>34</v>
-      </c>
-      <c r="F22" s="9">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="9">
-        <v>27</v>
-      </c>
-      <c r="C23" s="9">
-        <v>35</v>
-      </c>
-      <c r="E23" s="9">
-        <v>34</v>
-      </c>
-      <c r="F23" s="9">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="9">
-        <v>30</v>
-      </c>
-      <c r="C24" s="9">
-        <v>38</v>
-      </c>
-      <c r="E24" s="9">
-        <v>37</v>
-      </c>
-      <c r="F24" s="9">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="9">
-        <v>31</v>
-      </c>
-      <c r="C25" s="9">
-        <v>40</v>
-      </c>
-      <c r="E25" s="9">
-        <v>38</v>
-      </c>
-      <c r="F25" s="9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="9">
-        <v>34</v>
-      </c>
-      <c r="C26" s="9">
-        <v>41</v>
-      </c>
-      <c r="E26" s="9">
-        <v>40</v>
-      </c>
-      <c r="F26" s="9">
-        <v>31</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test/mechanical/forecasts/forecasts.xlsx
+++ b/test/mechanical/forecasts/forecasts.xlsx
@@ -603,11 +603,11 @@
         <v>2</v>
       </c>
       <c r="B4" s="7">
-        <v>0.6868102061585274</v>
+        <v>0.6871235942573017</v>
       </c>
       <c r="C4" s="7"/>
       <c r="E4" s="7">
-        <v>0.6221277314698901</v>
+        <v>0.6217213667790743</v>
       </c>
       <c r="F4" s="7"/>
     </row>
@@ -621,16 +621,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="8">
-        <v>0.1830992</v>
+        <v>0.1832445</v>
       </c>
       <c r="C6" s="8">
-        <v>0.8169008</v>
+        <v>0.8167555</v>
       </c>
       <c r="E6" s="8">
-        <v>0.8450347</v>
+        <v>0.8452007</v>
       </c>
       <c r="F6" s="8">
-        <v>0.1549653</v>
+        <v>0.1547993</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -638,16 +638,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="9">
-        <v>20.7256106</v>
+        <v>20.7256588</v>
       </c>
       <c r="C7" s="9">
-        <v>30.3840246</v>
+        <v>30.3815576</v>
       </c>
       <c r="E7" s="9">
-        <v>30.399729</v>
+        <v>30.3977152</v>
       </c>
       <c r="F7" s="9">
-        <v>21.5915674</v>
+        <v>21.5922656</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -658,7 +658,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="9">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="9">
         <v>21</v>
@@ -885,7 +885,7 @@
         <v>34</v>
       </c>
       <c r="F21" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:6">
